--- a/rotmic/static/uploadexample_chemicalsample.xlsx
+++ b/rotmic/static/uploadexample_chemicalsample.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="44">
   <si>
     <t>Description</t>
   </si>
@@ -140,9 +140,6 @@
     <t>Aliquotes</t>
   </si>
   <si>
-    <t>SB_D01</t>
-  </si>
-  <si>
     <t>2013-12-03</t>
   </si>
   <si>
@@ -158,9 +155,6 @@
     <t>µg</t>
   </si>
   <si>
-    <t>A11</t>
-  </si>
-  <si>
     <t>Import of Chemical (Reagent) Samples</t>
   </si>
   <si>
@@ -189,6 +183,9 @@
   </si>
   <si>
     <t>test Chemical sample</t>
+  </si>
+  <si>
+    <t>chemA_E</t>
   </si>
 </sst>
 </file>
@@ -603,7 +600,7 @@
   <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -624,7 +621,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -634,7 +631,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -651,7 +648,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>8</v>
@@ -676,20 +673,20 @@
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" t="s">
-        <v>34</v>
+      <c r="A6">
+        <v>1</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>29</v>
-      </c>
       <c r="E6" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F6" s="7">
         <v>5</v>
@@ -704,7 +701,7 @@
         <v>26</v>
       </c>
       <c r="L6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1219,7 +1216,7 @@
         <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L5" t="s">
         <v>3</v>
@@ -1233,7 +1230,7 @@
         <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L6" t="s">
         <v>3</v>
@@ -1247,7 +1244,7 @@
         <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L7" t="s">
         <v>3</v>
@@ -1261,7 +1258,7 @@
         <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L8" t="s">
         <v>3</v>
@@ -1299,7 +1296,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="E12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L12" t="s">
         <v>3</v>
@@ -1307,7 +1304,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="E13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L13" t="s">
         <v>3</v>
@@ -1315,7 +1312,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="E14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L14" t="s">
         <v>3</v>
@@ -1323,7 +1320,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="E15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L15" t="s">
         <v>3</v>
@@ -1331,7 +1328,7 @@
     </row>
     <row r="16" spans="1:12">
       <c r="E16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L16" t="s">
         <v>3</v>

--- a/rotmic/static/uploadexample_chemicalsample.xlsx
+++ b/rotmic/static/uploadexample_chemicalsample.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="45">
   <si>
     <t>Description</t>
   </si>
@@ -186,6 +186,9 @@
   </si>
   <si>
     <t>chemA_E</t>
+  </si>
+  <si>
+    <t>experiment #</t>
   </si>
 </sst>
 </file>
@@ -597,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -608,33 +611,33 @@
     <col min="1" max="1" width="8.28515625" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" style="5" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" customWidth="1"/>
-    <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" style="7" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" style="7" customWidth="1"/>
-    <col min="12" max="12" width="41" customWidth="1"/>
+    <col min="4" max="5" width="14.7109375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="7" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" style="7" customWidth="1"/>
+    <col min="13" max="13" width="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
@@ -647,32 +650,35 @@
       <c r="D5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="G5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="J5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="L5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>1</v>
       </c>
@@ -685,466 +691,504 @@
       <c r="D6" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="11"/>
+      <c r="F6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="7">
+      <c r="G6" s="7">
         <v>5</v>
       </c>
-      <c r="G6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="7">
+      <c r="H6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="7">
         <v>2</v>
       </c>
-      <c r="J6" t="s">
-        <v>26</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="K6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="C7" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="11"/>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="E7" s="11"/>
+      <c r="H7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="C8" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="11"/>
-      <c r="G8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="E8" s="11"/>
+      <c r="H8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="C9" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="11"/>
-      <c r="G9" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="E9" s="11"/>
+      <c r="H9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="C10" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="11"/>
-      <c r="G10" t="s">
-        <v>23</v>
-      </c>
-      <c r="J10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="E10" s="11"/>
+      <c r="H10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="C11" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="11"/>
-      <c r="G11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="E11" s="11"/>
+      <c r="H11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="C12" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="11"/>
-      <c r="G12" t="s">
-        <v>23</v>
-      </c>
-      <c r="J12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="E12" s="11"/>
+      <c r="H12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="C13" t="s">
         <v>14</v>
       </c>
       <c r="D13" s="11"/>
-      <c r="G13" t="s">
-        <v>23</v>
-      </c>
-      <c r="J13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="E13" s="11"/>
+      <c r="H13" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="C14" t="s">
         <v>14</v>
       </c>
       <c r="D14" s="11"/>
-      <c r="G14" t="s">
-        <v>23</v>
-      </c>
-      <c r="J14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="E14" s="11"/>
+      <c r="H14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="C15" t="s">
         <v>14</v>
       </c>
       <c r="D15" s="11"/>
-      <c r="G15" t="s">
-        <v>23</v>
-      </c>
-      <c r="J15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="E15" s="11"/>
+      <c r="H15" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="C16" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="11"/>
-      <c r="G16" t="s">
-        <v>23</v>
-      </c>
-      <c r="J16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="3:10">
+      <c r="E16" s="11"/>
+      <c r="H16" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="3:11">
       <c r="C17" t="s">
         <v>14</v>
       </c>
       <c r="D17" s="11"/>
-      <c r="G17" t="s">
-        <v>23</v>
-      </c>
-      <c r="J17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="3:10">
+      <c r="E17" s="11"/>
+      <c r="H17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11">
       <c r="C18" t="s">
         <v>14</v>
       </c>
       <c r="D18" s="11"/>
-      <c r="G18" t="s">
-        <v>23</v>
-      </c>
-      <c r="J18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="3:10">
+      <c r="E18" s="11"/>
+      <c r="H18" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11">
       <c r="C19" t="s">
         <v>14</v>
       </c>
       <c r="D19" s="11"/>
-      <c r="G19" t="s">
-        <v>23</v>
-      </c>
-      <c r="J19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="3:10">
+      <c r="E19" s="11"/>
+      <c r="H19" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="3:11">
       <c r="C20" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="11"/>
-      <c r="G20" t="s">
-        <v>23</v>
-      </c>
-      <c r="J20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="3:10">
+      <c r="E20" s="11"/>
+      <c r="H20" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="3:11">
       <c r="C21" t="s">
         <v>14</v>
       </c>
       <c r="D21" s="11"/>
-      <c r="G21" t="s">
-        <v>23</v>
-      </c>
-      <c r="J21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="3:10">
+      <c r="E21" s="11"/>
+      <c r="H21" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="3:11">
       <c r="C22" t="s">
         <v>14</v>
       </c>
       <c r="D22" s="11"/>
-      <c r="G22" t="s">
-        <v>23</v>
-      </c>
-      <c r="J22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="3:10">
+      <c r="E22" s="11"/>
+      <c r="H22" t="s">
+        <v>23</v>
+      </c>
+      <c r="K22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="3:11">
       <c r="C23" t="s">
         <v>14</v>
       </c>
       <c r="D23" s="11"/>
-      <c r="G23" t="s">
-        <v>23</v>
-      </c>
-      <c r="J23" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="3:10">
+      <c r="E23" s="11"/>
+      <c r="H23" t="s">
+        <v>23</v>
+      </c>
+      <c r="K23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="3:11">
       <c r="C24" t="s">
         <v>14</v>
       </c>
       <c r="D24" s="11"/>
-      <c r="G24" t="s">
-        <v>23</v>
-      </c>
-      <c r="J24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="3:10">
+      <c r="E24" s="11"/>
+      <c r="H24" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="3:11">
       <c r="C25" t="s">
         <v>14</v>
       </c>
       <c r="D25" s="11"/>
-      <c r="G25" t="s">
-        <v>23</v>
-      </c>
-      <c r="J25" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="3:10">
+      <c r="E25" s="11"/>
+      <c r="H25" t="s">
+        <v>23</v>
+      </c>
+      <c r="K25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="3:11">
       <c r="C26" t="s">
         <v>14</v>
       </c>
       <c r="D26" s="11"/>
-      <c r="G26" t="s">
-        <v>23</v>
-      </c>
-      <c r="J26" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="3:10">
+      <c r="E26" s="11"/>
+      <c r="H26" t="s">
+        <v>23</v>
+      </c>
+      <c r="K26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="3:11">
       <c r="C27" t="s">
         <v>14</v>
       </c>
       <c r="D27" s="11"/>
-      <c r="G27" t="s">
-        <v>23</v>
-      </c>
-      <c r="J27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="3:10">
+      <c r="E27" s="11"/>
+      <c r="H27" t="s">
+        <v>23</v>
+      </c>
+      <c r="K27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="3:11">
       <c r="C28" t="s">
         <v>14</v>
       </c>
       <c r="D28" s="11"/>
-      <c r="G28" t="s">
-        <v>23</v>
-      </c>
-      <c r="J28" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="3:10">
+      <c r="E28" s="11"/>
+      <c r="H28" t="s">
+        <v>23</v>
+      </c>
+      <c r="K28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="3:11">
       <c r="C29" t="s">
         <v>14</v>
       </c>
       <c r="D29" s="11"/>
-      <c r="G29" t="s">
-        <v>23</v>
-      </c>
-      <c r="J29" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="3:10">
+      <c r="E29" s="11"/>
+      <c r="H29" t="s">
+        <v>23</v>
+      </c>
+      <c r="K29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="3:11">
       <c r="C30" t="s">
         <v>14</v>
       </c>
       <c r="D30" s="11"/>
-      <c r="G30" t="s">
-        <v>23</v>
-      </c>
-      <c r="J30" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="3:10">
+      <c r="E30" s="11"/>
+      <c r="H30" t="s">
+        <v>23</v>
+      </c>
+      <c r="K30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="3:11">
       <c r="C31" t="s">
         <v>14</v>
       </c>
       <c r="D31" s="11"/>
-      <c r="G31" t="s">
-        <v>23</v>
-      </c>
-      <c r="J31" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="3:10">
+      <c r="E31" s="11"/>
+      <c r="H31" t="s">
+        <v>23</v>
+      </c>
+      <c r="K31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="3:11">
       <c r="C32" t="s">
         <v>14</v>
       </c>
       <c r="D32" s="11"/>
-      <c r="G32" t="s">
-        <v>23</v>
-      </c>
-      <c r="J32" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" spans="3:10">
+      <c r="E32" s="11"/>
+      <c r="H32" t="s">
+        <v>23</v>
+      </c>
+      <c r="K32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="3:11">
       <c r="C33" t="s">
         <v>14</v>
       </c>
       <c r="D33" s="11"/>
-      <c r="G33" t="s">
-        <v>23</v>
-      </c>
-      <c r="J33" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="3:10">
+      <c r="E33" s="11"/>
+      <c r="H33" t="s">
+        <v>23</v>
+      </c>
+      <c r="K33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="3:11">
       <c r="C34" t="s">
         <v>14</v>
       </c>
       <c r="D34" s="11"/>
-      <c r="G34" t="s">
-        <v>23</v>
-      </c>
-      <c r="J34" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="35" spans="3:10">
+      <c r="E34" s="11"/>
+      <c r="H34" t="s">
+        <v>23</v>
+      </c>
+      <c r="K34" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="3:11">
       <c r="C35" t="s">
         <v>14</v>
       </c>
       <c r="D35" s="11"/>
-      <c r="G35" t="s">
-        <v>23</v>
-      </c>
-      <c r="J35" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="36" spans="3:10">
+      <c r="E35" s="11"/>
+      <c r="H35" t="s">
+        <v>23</v>
+      </c>
+      <c r="K35" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="3:11">
       <c r="C36" t="s">
         <v>14</v>
       </c>
       <c r="D36" s="11"/>
-      <c r="G36" t="s">
-        <v>23</v>
-      </c>
-      <c r="J36" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="37" spans="3:10">
+      <c r="E36" s="11"/>
+      <c r="H36" t="s">
+        <v>23</v>
+      </c>
+      <c r="K36" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="3:11">
       <c r="C37" t="s">
         <v>14</v>
       </c>
       <c r="D37" s="11"/>
-      <c r="G37" t="s">
-        <v>23</v>
-      </c>
-      <c r="J37" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="38" spans="3:10">
+      <c r="E37" s="11"/>
+      <c r="H37" t="s">
+        <v>23</v>
+      </c>
+      <c r="K37" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="3:11">
       <c r="C38" t="s">
         <v>14</v>
       </c>
       <c r="D38" s="11"/>
-      <c r="G38" t="s">
-        <v>23</v>
-      </c>
-      <c r="J38" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="39" spans="3:10">
+      <c r="E38" s="11"/>
+      <c r="H38" t="s">
+        <v>23</v>
+      </c>
+      <c r="K38" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="3:11">
       <c r="C39" t="s">
         <v>14</v>
       </c>
       <c r="D39" s="11"/>
-      <c r="G39" t="s">
-        <v>23</v>
-      </c>
-      <c r="J39" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="40" spans="3:10">
+      <c r="E39" s="11"/>
+      <c r="H39" t="s">
+        <v>23</v>
+      </c>
+      <c r="K39" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="3:11">
       <c r="C40" t="s">
         <v>14</v>
       </c>
       <c r="D40" s="11"/>
-      <c r="G40" t="s">
-        <v>23</v>
-      </c>
-      <c r="J40" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="41" spans="3:10">
+      <c r="E40" s="11"/>
+      <c r="H40" t="s">
+        <v>23</v>
+      </c>
+      <c r="K40" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="3:11">
       <c r="C41" t="s">
         <v>14</v>
       </c>
       <c r="D41" s="11"/>
-      <c r="G41" t="s">
-        <v>23</v>
-      </c>
-      <c r="J41" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="42" spans="3:10">
+      <c r="E41" s="11"/>
+      <c r="H41" t="s">
+        <v>23</v>
+      </c>
+      <c r="K41" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="3:11">
       <c r="C42" t="s">
         <v>14</v>
       </c>
       <c r="D42" s="11"/>
-      <c r="G42" t="s">
-        <v>23</v>
-      </c>
-      <c r="J42" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="43" spans="3:10">
+      <c r="E42" s="11"/>
+      <c r="H42" t="s">
+        <v>23</v>
+      </c>
+      <c r="K42" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="3:11">
       <c r="C43" t="s">
         <v>14</v>
       </c>
       <c r="D43" s="11"/>
-      <c r="G43" t="s">
-        <v>23</v>
-      </c>
-      <c r="J43" t="s">
+      <c r="E43" s="11"/>
+      <c r="H43" t="s">
+        <v>23</v>
+      </c>
+      <c r="K43" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1153,10 +1197,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C43">
       <formula1>statusChoices</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G6:G43">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="H6:H43">
       <formula1>concentrationUnits</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J6:J43">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6:K43">
       <formula1>amountUnits</formula1>
     </dataValidation>
   </dataValidations>

--- a/rotmic/static/uploadexample_chemicalsample.xlsx
+++ b/rotmic/static/uploadexample_chemicalsample.xlsx
@@ -15,7 +15,7 @@
     <definedName name="concentrationUnits">predefined!$C$5:$C$9</definedName>
     <definedName name="statusChoices">predefined!$A$5:$A$9</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -25,7 +25,7 @@
     <author>Raik Gruenberg</author>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0">
+    <comment ref="D7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -33,7 +33,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Raik Gruenberg:</t>
         </r>
@@ -42,7 +42,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 preparation date</t>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="44">
   <si>
     <t>Description</t>
   </si>
@@ -77,18 +77,12 @@
     <t>Status</t>
   </si>
   <si>
-    <t>prepared</t>
-  </si>
-  <si>
     <t>Concentration</t>
   </si>
   <si>
     <t>Concentration Unit</t>
   </si>
   <si>
-    <t>Clear the example data (except Status column) before inserting your own data.</t>
-  </si>
-  <si>
     <t>in Buffer</t>
   </si>
   <si>
@@ -143,9 +137,6 @@
     <t>2013-12-03</t>
   </si>
   <si>
-    <t>Note, the preparation date needs to be formatted as shown in the example</t>
-  </si>
-  <si>
     <t>nmol</t>
   </si>
   <si>
@@ -189,12 +180,21 @@
   </si>
   <si>
     <t>experiment #</t>
+  </si>
+  <si>
+    <t>Prepared</t>
+  </si>
+  <si>
+    <t>test sample</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="dd/mm/yyyy;@"/>
+  </numFmts>
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -229,14 +229,14 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -282,7 +282,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -305,6 +305,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -313,6 +319,98 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>666749</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="190500"/>
+          <a:ext cx="11372849" cy="819150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Clear the example data before inserting your own data (except Status, strain, and unit columns so that you can keep the drop-down boxes).</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Fields marked in </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>Bold</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> are required. Rows without any value in the first column will be ignored.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Note, the preparation date can either be formatted as string '2014-01-28  or as proper Excel date.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -600,10 +698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M43"/>
+  <dimension ref="A1:M45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -624,589 +722,600 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10" t="s">
+      <c r="K7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="7">
         <v>5</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" s="6" t="s">
+      <c r="H8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="7">
+        <v>2</v>
+      </c>
+      <c r="K8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="13">
+        <v>42001</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="7">
+        <v>50</v>
+      </c>
+      <c r="H9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="7">
+        <v>100</v>
+      </c>
+      <c r="K9" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" t="s">
         <v>43</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="7">
-        <v>5</v>
-      </c>
-      <c r="H6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="7">
-        <v>2</v>
-      </c>
-      <c r="K6" t="s">
-        <v>26</v>
-      </c>
-      <c r="M6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="H7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="H8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="H9" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="11"/>
+        <v>12</v>
+      </c>
+      <c r="D10" s="13"/>
       <c r="E10" s="11"/>
       <c r="H10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="11"/>
+        <v>12</v>
+      </c>
+      <c r="D11" s="13"/>
       <c r="E11" s="11"/>
       <c r="H11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="11"/>
+        <v>12</v>
+      </c>
+      <c r="D12" s="13"/>
       <c r="E12" s="11"/>
       <c r="H12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="11"/>
+        <v>12</v>
+      </c>
+      <c r="D13" s="13"/>
       <c r="E13" s="11"/>
       <c r="H13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="C14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="11"/>
+        <v>12</v>
+      </c>
+      <c r="D14" s="13"/>
       <c r="E14" s="11"/>
       <c r="H14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="C15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="11"/>
+        <v>12</v>
+      </c>
+      <c r="D15" s="13"/>
       <c r="E15" s="11"/>
       <c r="H15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="C16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="11"/>
+        <v>12</v>
+      </c>
+      <c r="D16" s="13"/>
       <c r="E16" s="11"/>
       <c r="H16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="3:11">
       <c r="C17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="11"/>
+        <v>12</v>
+      </c>
+      <c r="D17" s="13"/>
       <c r="E17" s="11"/>
       <c r="H17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="3:11">
       <c r="C18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="11"/>
+        <v>12</v>
+      </c>
+      <c r="D18" s="13"/>
       <c r="E18" s="11"/>
       <c r="H18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="3:11">
       <c r="C19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="11"/>
+        <v>12</v>
+      </c>
+      <c r="D19" s="13"/>
       <c r="E19" s="11"/>
       <c r="H19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="3:11">
       <c r="C20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="11"/>
+        <v>12</v>
+      </c>
+      <c r="D20" s="13"/>
       <c r="E20" s="11"/>
       <c r="H20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="3:11">
       <c r="C21" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="11"/>
+        <v>12</v>
+      </c>
+      <c r="D21" s="13"/>
       <c r="E21" s="11"/>
       <c r="H21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="3:11">
       <c r="C22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="11"/>
+        <v>12</v>
+      </c>
+      <c r="D22" s="13"/>
       <c r="E22" s="11"/>
       <c r="H22" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="3:11">
       <c r="C23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="11"/>
+        <v>12</v>
+      </c>
+      <c r="D23" s="13"/>
       <c r="E23" s="11"/>
       <c r="H23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="3:11">
       <c r="C24" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="11"/>
+        <v>12</v>
+      </c>
+      <c r="D24" s="13"/>
       <c r="E24" s="11"/>
       <c r="H24" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K24" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="3:11">
       <c r="C25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="11"/>
+        <v>12</v>
+      </c>
+      <c r="D25" s="13"/>
       <c r="E25" s="11"/>
       <c r="H25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="3:11">
       <c r="C26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="11"/>
+        <v>12</v>
+      </c>
+      <c r="D26" s="13"/>
       <c r="E26" s="11"/>
       <c r="H26" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K26" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="3:11">
       <c r="C27" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="11"/>
+        <v>12</v>
+      </c>
+      <c r="D27" s="13"/>
       <c r="E27" s="11"/>
       <c r="H27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K27" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="3:11">
       <c r="C28" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="11"/>
+        <v>12</v>
+      </c>
+      <c r="D28" s="13"/>
       <c r="E28" s="11"/>
       <c r="H28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K28" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="3:11">
       <c r="C29" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" s="11"/>
+        <v>12</v>
+      </c>
+      <c r="D29" s="13"/>
       <c r="E29" s="11"/>
       <c r="H29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K29" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="3:11">
       <c r="C30" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" s="11"/>
+        <v>12</v>
+      </c>
+      <c r="D30" s="13"/>
       <c r="E30" s="11"/>
       <c r="H30" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K30" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="3:11">
       <c r="C31" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" s="11"/>
+        <v>12</v>
+      </c>
+      <c r="D31" s="13"/>
       <c r="E31" s="11"/>
       <c r="H31" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K31" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="3:11">
       <c r="C32" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" s="11"/>
+        <v>12</v>
+      </c>
+      <c r="D32" s="13"/>
       <c r="E32" s="11"/>
       <c r="H32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K32" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="3:11">
       <c r="C33" t="s">
-        <v>14</v>
-      </c>
-      <c r="D33" s="11"/>
+        <v>12</v>
+      </c>
+      <c r="D33" s="13"/>
       <c r="E33" s="11"/>
       <c r="H33" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K33" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="3:11">
       <c r="C34" t="s">
-        <v>14</v>
-      </c>
-      <c r="D34" s="11"/>
+        <v>12</v>
+      </c>
+      <c r="D34" s="13"/>
       <c r="E34" s="11"/>
       <c r="H34" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K34" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="3:11">
       <c r="C35" t="s">
-        <v>14</v>
-      </c>
-      <c r="D35" s="11"/>
+        <v>12</v>
+      </c>
+      <c r="D35" s="13"/>
       <c r="E35" s="11"/>
       <c r="H35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K35" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="3:11">
       <c r="C36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D36" s="11"/>
+        <v>12</v>
+      </c>
+      <c r="D36" s="13"/>
       <c r="E36" s="11"/>
       <c r="H36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K36" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="3:11">
       <c r="C37" t="s">
-        <v>14</v>
-      </c>
-      <c r="D37" s="11"/>
+        <v>12</v>
+      </c>
+      <c r="D37" s="13"/>
       <c r="E37" s="11"/>
       <c r="H37" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K37" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="3:11">
       <c r="C38" t="s">
-        <v>14</v>
-      </c>
-      <c r="D38" s="11"/>
+        <v>12</v>
+      </c>
+      <c r="D38" s="13"/>
       <c r="E38" s="11"/>
       <c r="H38" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K38" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="3:11">
       <c r="C39" t="s">
-        <v>14</v>
-      </c>
-      <c r="D39" s="11"/>
+        <v>12</v>
+      </c>
+      <c r="D39" s="13"/>
       <c r="E39" s="11"/>
       <c r="H39" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K39" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="3:11">
       <c r="C40" t="s">
-        <v>14</v>
-      </c>
-      <c r="D40" s="11"/>
+        <v>12</v>
+      </c>
+      <c r="D40" s="13"/>
       <c r="E40" s="11"/>
       <c r="H40" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K40" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="3:11">
       <c r="C41" t="s">
-        <v>14</v>
-      </c>
-      <c r="D41" s="11"/>
+        <v>12</v>
+      </c>
+      <c r="D41" s="13"/>
       <c r="E41" s="11"/>
       <c r="H41" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K41" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="3:11">
       <c r="C42" t="s">
-        <v>14</v>
-      </c>
-      <c r="D42" s="11"/>
+        <v>12</v>
+      </c>
+      <c r="D42" s="13"/>
       <c r="E42" s="11"/>
       <c r="H42" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K42" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="3:11">
       <c r="C43" t="s">
-        <v>14</v>
-      </c>
-      <c r="D43" s="11"/>
+        <v>12</v>
+      </c>
+      <c r="D43" s="13"/>
       <c r="E43" s="11"/>
       <c r="H43" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K43" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="3:11">
+      <c r="C44" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="13"/>
+      <c r="E44" s="11"/>
+      <c r="H44" t="s">
+        <v>21</v>
+      </c>
+      <c r="K44" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="3:11">
+      <c r="C45" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="13"/>
+      <c r="E45" s="11"/>
+      <c r="H45" t="s">
+        <v>21</v>
+      </c>
+      <c r="K45" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C43">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:C45">
       <formula1>statusChoices</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="H6:H43">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="H8:H45">
       <formula1>concentrationUnits</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6:K43">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K8:K45">
       <formula1>amountUnits</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="2400" verticalDpi="1200" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1243,10 +1352,10 @@
         <v>6</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K4" t="s">
         <v>3</v>
@@ -1254,13 +1363,13 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L5" t="s">
         <v>3</v>
@@ -1268,13 +1377,13 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L6" t="s">
         <v>3</v>
@@ -1282,13 +1391,13 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="L7" t="s">
         <v>3</v>
@@ -1296,13 +1405,13 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="L8" t="s">
         <v>3</v>
@@ -1310,13 +1419,13 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L9" t="s">
         <v>3</v>
@@ -1324,7 +1433,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="E10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L10" t="s">
         <v>3</v>
@@ -1332,7 +1441,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="E11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L11" t="s">
         <v>3</v>
@@ -1340,7 +1449,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="E12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="L12" t="s">
         <v>3</v>
@@ -1348,7 +1457,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="E13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L13" t="s">
         <v>3</v>
@@ -1356,7 +1465,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="E14" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L14" t="s">
         <v>3</v>
@@ -1364,7 +1473,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="E15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L15" t="s">
         <v>3</v>
@@ -1372,7 +1481,7 @@
     </row>
     <row r="16" spans="1:12">
       <c r="E16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="L16" t="s">
         <v>3</v>

--- a/rotmic/static/uploadexample_chemicalsample.xlsx
+++ b/rotmic/static/uploadexample_chemicalsample.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="46">
   <si>
     <t>Description</t>
   </si>
@@ -186,6 +186,12 @@
   </si>
   <si>
     <t>test sample</t>
+  </si>
+  <si>
+    <t>By</t>
+  </si>
+  <si>
+    <t>raik</t>
   </si>
 </sst>
 </file>
@@ -193,9 +199,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,6 +251,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -282,7 +294,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -308,7 +320,10 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -331,7 +346,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>666749</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
@@ -398,7 +413,10 @@
           </a:r>
         </a:p>
         <a:p>
-          <a:endParaRPr lang="en-US" sz="1100"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>By: refers to the user who prepared this sample. It has to be an exact rotmic user name. Leave empty to register the user uploading the table as "prepared By".</a:t>
+          </a:r>
         </a:p>
         <a:p>
           <a:r>
@@ -698,10 +716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M45"/>
+  <dimension ref="A1:N45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -709,23 +727,23 @@
     <col min="1" max="1" width="8.28515625" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" style="5" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" style="7" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="7" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" customWidth="1"/>
-    <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="7" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" style="7" customWidth="1"/>
-    <col min="13" max="13" width="41" customWidth="1"/>
+    <col min="4" max="6" width="14.7109375" style="7" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" style="7" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" style="7" customWidth="1"/>
+    <col min="14" max="14" width="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:14">
       <c r="A7" s="9" t="s">
         <v>4</v>
       </c>
@@ -738,35 +756,38 @@
       <c r="D7" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="G7" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="H7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="K7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L7" s="8" t="s">
+      <c r="M7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>1</v>
       </c>
@@ -779,27 +800,28 @@
       <c r="D8" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="3" t="s">
+      <c r="E8" s="13"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="7">
+      <c r="H8" s="7">
         <v>5</v>
       </c>
-      <c r="H8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="7">
+      <c r="I8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="7">
         <v>2</v>
       </c>
-      <c r="K8" t="s">
-        <v>24</v>
-      </c>
-      <c r="M8" t="s">
+      <c r="L8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>2</v>
       </c>
@@ -812,491 +834,530 @@
       <c r="D9" s="13">
         <v>42001</v>
       </c>
-      <c r="E9" s="11"/>
-      <c r="F9" t="s">
+      <c r="E9" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="7">
+      <c r="H9" s="7">
         <v>50</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="7">
+      <c r="K9" s="7">
         <v>100</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>23</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:14">
       <c r="C10" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="13"/>
-      <c r="E10" s="11"/>
-      <c r="H10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="E10" s="13"/>
+      <c r="F10" s="11"/>
+      <c r="I10" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="C11" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="13"/>
-      <c r="E11" s="11"/>
-      <c r="H11" t="s">
-        <v>21</v>
-      </c>
-      <c r="K11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="E11" s="13"/>
+      <c r="F11" s="11"/>
+      <c r="I11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="C12" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="13"/>
-      <c r="E12" s="11"/>
-      <c r="H12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="E12" s="13"/>
+      <c r="F12" s="11"/>
+      <c r="I12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="C13" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="13"/>
-      <c r="E13" s="11"/>
-      <c r="H13" t="s">
-        <v>21</v>
-      </c>
-      <c r="K13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="E13" s="13"/>
+      <c r="F13" s="11"/>
+      <c r="I13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="C14" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="13"/>
-      <c r="E14" s="11"/>
-      <c r="H14" t="s">
-        <v>21</v>
-      </c>
-      <c r="K14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="E14" s="13"/>
+      <c r="F14" s="11"/>
+      <c r="I14" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="C15" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="13"/>
-      <c r="E15" s="11"/>
-      <c r="H15" t="s">
-        <v>21</v>
-      </c>
-      <c r="K15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="E15" s="13"/>
+      <c r="F15" s="11"/>
+      <c r="I15" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="C16" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="13"/>
-      <c r="E16" s="11"/>
-      <c r="H16" t="s">
-        <v>21</v>
-      </c>
-      <c r="K16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="3:11">
+      <c r="E16" s="13"/>
+      <c r="F16" s="11"/>
+      <c r="I16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12">
       <c r="C17" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="13"/>
-      <c r="E17" s="11"/>
-      <c r="H17" t="s">
-        <v>21</v>
-      </c>
-      <c r="K17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="3:11">
+      <c r="E17" s="13"/>
+      <c r="F17" s="11"/>
+      <c r="I17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12">
       <c r="C18" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="13"/>
-      <c r="E18" s="11"/>
-      <c r="H18" t="s">
-        <v>21</v>
-      </c>
-      <c r="K18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11">
+      <c r="E18" s="13"/>
+      <c r="F18" s="11"/>
+      <c r="I18" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12">
       <c r="C19" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="13"/>
-      <c r="E19" s="11"/>
-      <c r="H19" t="s">
-        <v>21</v>
-      </c>
-      <c r="K19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="3:11">
+      <c r="E19" s="13"/>
+      <c r="F19" s="11"/>
+      <c r="I19" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="3:12">
       <c r="C20" t="s">
         <v>12</v>
       </c>
       <c r="D20" s="13"/>
-      <c r="E20" s="11"/>
-      <c r="H20" t="s">
-        <v>21</v>
-      </c>
-      <c r="K20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="3:11">
+      <c r="E20" s="13"/>
+      <c r="F20" s="11"/>
+      <c r="I20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12">
       <c r="C21" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="13"/>
-      <c r="E21" s="11"/>
-      <c r="H21" t="s">
-        <v>21</v>
-      </c>
-      <c r="K21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="3:11">
+      <c r="E21" s="13"/>
+      <c r="F21" s="11"/>
+      <c r="I21" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12">
       <c r="C22" t="s">
         <v>12</v>
       </c>
       <c r="D22" s="13"/>
-      <c r="E22" s="11"/>
-      <c r="H22" t="s">
-        <v>21</v>
-      </c>
-      <c r="K22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="3:11">
+      <c r="E22" s="13"/>
+      <c r="F22" s="11"/>
+      <c r="I22" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12">
       <c r="C23" t="s">
         <v>12</v>
       </c>
       <c r="D23" s="13"/>
-      <c r="E23" s="11"/>
-      <c r="H23" t="s">
-        <v>21</v>
-      </c>
-      <c r="K23" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="3:11">
+      <c r="E23" s="13"/>
+      <c r="F23" s="11"/>
+      <c r="I23" t="s">
+        <v>21</v>
+      </c>
+      <c r="L23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12">
       <c r="C24" t="s">
         <v>12</v>
       </c>
       <c r="D24" s="13"/>
-      <c r="E24" s="11"/>
-      <c r="H24" t="s">
-        <v>21</v>
-      </c>
-      <c r="K24" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="3:11">
+      <c r="E24" s="13"/>
+      <c r="F24" s="11"/>
+      <c r="I24" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12">
       <c r="C25" t="s">
         <v>12</v>
       </c>
       <c r="D25" s="13"/>
-      <c r="E25" s="11"/>
-      <c r="H25" t="s">
-        <v>21</v>
-      </c>
-      <c r="K25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="3:11">
+      <c r="E25" s="13"/>
+      <c r="F25" s="11"/>
+      <c r="I25" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12">
       <c r="C26" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="13"/>
-      <c r="E26" s="11"/>
-      <c r="H26" t="s">
-        <v>21</v>
-      </c>
-      <c r="K26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="3:11">
+      <c r="E26" s="13"/>
+      <c r="F26" s="11"/>
+      <c r="I26" t="s">
+        <v>21</v>
+      </c>
+      <c r="L26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12">
       <c r="C27" t="s">
         <v>12</v>
       </c>
       <c r="D27" s="13"/>
-      <c r="E27" s="11"/>
-      <c r="H27" t="s">
-        <v>21</v>
-      </c>
-      <c r="K27" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="3:11">
+      <c r="E27" s="13"/>
+      <c r="F27" s="11"/>
+      <c r="I27" t="s">
+        <v>21</v>
+      </c>
+      <c r="L27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12">
       <c r="C28" t="s">
         <v>12</v>
       </c>
       <c r="D28" s="13"/>
-      <c r="E28" s="11"/>
-      <c r="H28" t="s">
-        <v>21</v>
-      </c>
-      <c r="K28" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="3:11">
+      <c r="E28" s="13"/>
+      <c r="F28" s="11"/>
+      <c r="I28" t="s">
+        <v>21</v>
+      </c>
+      <c r="L28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12">
       <c r="C29" t="s">
         <v>12</v>
       </c>
       <c r="D29" s="13"/>
-      <c r="E29" s="11"/>
-      <c r="H29" t="s">
-        <v>21</v>
-      </c>
-      <c r="K29" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="3:11">
+      <c r="E29" s="13"/>
+      <c r="F29" s="11"/>
+      <c r="I29" t="s">
+        <v>21</v>
+      </c>
+      <c r="L29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12">
       <c r="C30" t="s">
         <v>12</v>
       </c>
       <c r="D30" s="13"/>
-      <c r="E30" s="11"/>
-      <c r="H30" t="s">
-        <v>21</v>
-      </c>
-      <c r="K30" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="3:11">
+      <c r="E30" s="13"/>
+      <c r="F30" s="11"/>
+      <c r="I30" t="s">
+        <v>21</v>
+      </c>
+      <c r="L30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12">
       <c r="C31" t="s">
         <v>12</v>
       </c>
       <c r="D31" s="13"/>
-      <c r="E31" s="11"/>
-      <c r="H31" t="s">
-        <v>21</v>
-      </c>
-      <c r="K31" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="3:11">
+      <c r="E31" s="13"/>
+      <c r="F31" s="11"/>
+      <c r="I31" t="s">
+        <v>21</v>
+      </c>
+      <c r="L31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12">
       <c r="C32" t="s">
         <v>12</v>
       </c>
       <c r="D32" s="13"/>
-      <c r="E32" s="11"/>
-      <c r="H32" t="s">
-        <v>21</v>
-      </c>
-      <c r="K32" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="3:11">
+      <c r="E32" s="13"/>
+      <c r="F32" s="11"/>
+      <c r="I32" t="s">
+        <v>21</v>
+      </c>
+      <c r="L32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="3:12">
       <c r="C33" t="s">
         <v>12</v>
       </c>
       <c r="D33" s="13"/>
-      <c r="E33" s="11"/>
-      <c r="H33" t="s">
-        <v>21</v>
-      </c>
-      <c r="K33" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="34" spans="3:11">
+      <c r="E33" s="13"/>
+      <c r="F33" s="11"/>
+      <c r="I33" t="s">
+        <v>21</v>
+      </c>
+      <c r="L33" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="3:12">
       <c r="C34" t="s">
         <v>12</v>
       </c>
       <c r="D34" s="13"/>
-      <c r="E34" s="11"/>
-      <c r="H34" t="s">
-        <v>21</v>
-      </c>
-      <c r="K34" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" spans="3:11">
+      <c r="E34" s="13"/>
+      <c r="F34" s="11"/>
+      <c r="I34" t="s">
+        <v>21</v>
+      </c>
+      <c r="L34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="3:12">
       <c r="C35" t="s">
         <v>12</v>
       </c>
       <c r="D35" s="13"/>
-      <c r="E35" s="11"/>
-      <c r="H35" t="s">
-        <v>21</v>
-      </c>
-      <c r="K35" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="36" spans="3:11">
+      <c r="E35" s="13"/>
+      <c r="F35" s="11"/>
+      <c r="I35" t="s">
+        <v>21</v>
+      </c>
+      <c r="L35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="3:12">
       <c r="C36" t="s">
         <v>12</v>
       </c>
       <c r="D36" s="13"/>
-      <c r="E36" s="11"/>
-      <c r="H36" t="s">
-        <v>21</v>
-      </c>
-      <c r="K36" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="37" spans="3:11">
+      <c r="E36" s="13"/>
+      <c r="F36" s="11"/>
+      <c r="I36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L36" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="3:12">
       <c r="C37" t="s">
         <v>12</v>
       </c>
       <c r="D37" s="13"/>
-      <c r="E37" s="11"/>
-      <c r="H37" t="s">
-        <v>21</v>
-      </c>
-      <c r="K37" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="38" spans="3:11">
+      <c r="E37" s="13"/>
+      <c r="F37" s="11"/>
+      <c r="I37" t="s">
+        <v>21</v>
+      </c>
+      <c r="L37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="3:12">
       <c r="C38" t="s">
         <v>12</v>
       </c>
       <c r="D38" s="13"/>
-      <c r="E38" s="11"/>
-      <c r="H38" t="s">
-        <v>21</v>
-      </c>
-      <c r="K38" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="39" spans="3:11">
+      <c r="E38" s="13"/>
+      <c r="F38" s="11"/>
+      <c r="I38" t="s">
+        <v>21</v>
+      </c>
+      <c r="L38" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="3:12">
       <c r="C39" t="s">
         <v>12</v>
       </c>
       <c r="D39" s="13"/>
-      <c r="E39" s="11"/>
-      <c r="H39" t="s">
-        <v>21</v>
-      </c>
-      <c r="K39" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="40" spans="3:11">
+      <c r="E39" s="13"/>
+      <c r="F39" s="11"/>
+      <c r="I39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L39" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="3:12">
       <c r="C40" t="s">
         <v>12</v>
       </c>
       <c r="D40" s="13"/>
-      <c r="E40" s="11"/>
-      <c r="H40" t="s">
-        <v>21</v>
-      </c>
-      <c r="K40" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="41" spans="3:11">
+      <c r="E40" s="13"/>
+      <c r="F40" s="11"/>
+      <c r="I40" t="s">
+        <v>21</v>
+      </c>
+      <c r="L40" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="3:12">
       <c r="C41" t="s">
         <v>12</v>
       </c>
       <c r="D41" s="13"/>
-      <c r="E41" s="11"/>
-      <c r="H41" t="s">
-        <v>21</v>
-      </c>
-      <c r="K41" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="42" spans="3:11">
+      <c r="E41" s="13"/>
+      <c r="F41" s="11"/>
+      <c r="I41" t="s">
+        <v>21</v>
+      </c>
+      <c r="L41" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="3:12">
       <c r="C42" t="s">
         <v>12</v>
       </c>
       <c r="D42" s="13"/>
-      <c r="E42" s="11"/>
-      <c r="H42" t="s">
-        <v>21</v>
-      </c>
-      <c r="K42" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="43" spans="3:11">
+      <c r="E42" s="13"/>
+      <c r="F42" s="11"/>
+      <c r="I42" t="s">
+        <v>21</v>
+      </c>
+      <c r="L42" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="3:12">
       <c r="C43" t="s">
         <v>12</v>
       </c>
       <c r="D43" s="13"/>
-      <c r="E43" s="11"/>
-      <c r="H43" t="s">
-        <v>21</v>
-      </c>
-      <c r="K43" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="44" spans="3:11">
+      <c r="E43" s="13"/>
+      <c r="F43" s="11"/>
+      <c r="I43" t="s">
+        <v>21</v>
+      </c>
+      <c r="L43" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="3:12">
       <c r="C44" t="s">
         <v>12</v>
       </c>
       <c r="D44" s="13"/>
-      <c r="E44" s="11"/>
-      <c r="H44" t="s">
-        <v>21</v>
-      </c>
-      <c r="K44" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="45" spans="3:11">
+      <c r="E44" s="13"/>
+      <c r="F44" s="11"/>
+      <c r="I44" t="s">
+        <v>21</v>
+      </c>
+      <c r="L44" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="3:12">
       <c r="C45" t="s">
         <v>12</v>
       </c>
       <c r="D45" s="13"/>
-      <c r="E45" s="11"/>
-      <c r="H45" t="s">
-        <v>21</v>
-      </c>
-      <c r="K45" t="s">
+      <c r="E45" s="13"/>
+      <c r="F45" s="11"/>
+      <c r="I45" t="s">
+        <v>21</v>
+      </c>
+      <c r="L45" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1305,10 +1366,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:C45">
       <formula1>statusChoices</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="H8:H45">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I8:I45">
       <formula1>concentrationUnits</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K8:K45">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L8:L45">
       <formula1>amountUnits</formula1>
     </dataValidation>
   </dataValidations>

--- a/rotmic/static/uploadexample_chemicalsample.xlsx
+++ b/rotmic/static/uploadexample_chemicalsample.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5790" yWindow="30" windowWidth="26265" windowHeight="15390"/>
+    <workbookView xWindow="5790" yWindow="30" windowWidth="25860" windowHeight="15390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -131,9 +131,6 @@
     <t>L</t>
   </si>
   <si>
-    <t>Aliquotes</t>
-  </si>
-  <si>
     <t>2013-12-03</t>
   </si>
   <si>
@@ -192,6 +189,9 @@
   </si>
   <si>
     <t>raik</t>
+  </si>
+  <si>
+    <t>Aliquots</t>
   </si>
 </sst>
 </file>
@@ -719,7 +719,7 @@
   <dimension ref="A1:N45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -740,7 +740,7 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -754,16 +754,16 @@
         <v>6</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>7</v>
@@ -781,7 +781,7 @@
         <v>11</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>0</v>
@@ -792,18 +792,18 @@
         <v>1</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="11"/>
       <c r="G8" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H8" s="7">
         <v>5</v>
@@ -818,7 +818,7 @@
         <v>24</v>
       </c>
       <c r="N8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -826,7 +826,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
@@ -835,11 +835,11 @@
         <v>42001</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H9" s="7">
         <v>50</v>
@@ -854,7 +854,7 @@
         <v>23</v>
       </c>
       <c r="N9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1430,7 +1430,7 @@
         <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L5" t="s">
         <v>3</v>
@@ -1444,7 +1444,7 @@
         <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L6" t="s">
         <v>3</v>
@@ -1458,7 +1458,7 @@
         <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L7" t="s">
         <v>3</v>
@@ -1472,7 +1472,7 @@
         <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L8" t="s">
         <v>3</v>
@@ -1510,7 +1510,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="E12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L12" t="s">
         <v>3</v>
@@ -1518,7 +1518,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="E13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L13" t="s">
         <v>3</v>
@@ -1526,7 +1526,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="E14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L14" t="s">
         <v>3</v>
@@ -1534,7 +1534,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="E15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L15" t="s">
         <v>3</v>
@@ -1542,7 +1542,7 @@
     </row>
     <row r="16" spans="1:12">
       <c r="E16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L16" t="s">
         <v>3</v>
